--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Discounted cash flow [target].xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Discounted cash flow [target].xlsx
@@ -1,55 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/733a0933307f0df0/Code/Bioindustrial-Park/BioSTEAM 2.x.x/biorefineries/LAOs/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{20D96A05-7727-4DC2-94F0-26427810B2F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="696" yWindow="2796" windowWidth="20532" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>Depreciable capital</t>
+    <t>Depreciable capital [MM$]</t>
   </si>
   <si>
-    <t>Fixed capital investment</t>
+    <t>Fixed capital investment [MM$]</t>
   </si>
   <si>
-    <t>Working capital</t>
+    <t>Working capital [MM$]</t>
   </si>
   <si>
-    <t>Depreciation</t>
+    <t>Depreciation [MM$]</t>
   </si>
   <si>
-    <t>Loan</t>
+    <t>Loan [MM$]</t>
   </si>
   <si>
-    <t>Loan interest payment</t>
+    <t>Loan interest payment [MM$]</t>
   </si>
   <si>
-    <t>Loan payment</t>
+    <t>Loan payment [MM$]</t>
   </si>
   <si>
-    <t>Loan principal</t>
+    <t>Loan principal [MM$]</t>
   </si>
   <si>
-    <t>Annual operating cost (excluding depreciation)</t>
+    <t>Annual operating cost (excluding depreciation) [MM$]</t>
   </si>
   <si>
-    <t>Sales</t>
+    <t>Sales [MM$]</t>
   </si>
   <si>
-    <t>Tax</t>
+    <t>Tax [MM$]</t>
   </si>
   <si>
-    <t>Incentives</t>
+    <t>Incentives [MM$]</t>
+  </si>
+  <si>
+    <t>Net earnings [MM$]</t>
+  </si>
+  <si>
+    <t>Cash flow [MM$]</t>
+  </si>
+  <si>
+    <t>Discount factor</t>
+  </si>
+  <si>
+    <t>Net present value (NPV) [MM$]</t>
+  </si>
+  <si>
+    <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
     <t>Net earnings</t>
@@ -58,23 +79,17 @@
     <t>Cash flow</t>
   </si>
   <si>
-    <t>Discount factor</t>
-  </si>
-  <si>
     <t>Net present value (NPV)</t>
   </si>
   <si>
     <t>Cumulative NPV</t>
   </si>
-  <si>
-    <t>Cumilative NPV</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +152,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -183,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +238,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +290,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,14 +483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,16 +545,25 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
       <c r="B2">
-        <v>7869492.417719766</v>
+        <v>7.3231460408947289</v>
       </c>
       <c r="C2">
-        <v>14165086.35189558</v>
+        <v>13.181662873610509</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -504,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5666034.540758231</v>
+        <v>5.2726651494442054</v>
       </c>
       <c r="G2">
-        <v>453282.7632606585</v>
+        <v>0.42181321195553628</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6119317.30401889</v>
+        <v>5.6944783613997414</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -531,30 +599,39 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-8499051.811137347</v>
+        <v>-7.9089977241663068</v>
       </c>
       <c r="P2">
         <v>2.42</v>
       </c>
       <c r="Q2">
-        <v>-20567705.38295238</v>
+        <v>-9.5698872462412332</v>
       </c>
       <c r="R2">
-        <v>-10283852.69147619</v>
+        <v>-9.5698872462412332</v>
       </c>
       <c r="S2">
-        <v>-20567705.38295238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>-7.9089977241663068</v>
+      </c>
+      <c r="U2">
+        <v>-19.13977449248247</v>
+      </c>
+      <c r="V2">
+        <v>-19.13977449248247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
       <c r="B3">
-        <v>59021193.13289824</v>
+        <v>54.92359530671046</v>
       </c>
       <c r="C3">
-        <v>106238147.6392168</v>
+        <v>98.86247155207883</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -563,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42495259.05568673</v>
+        <v>39.544988620831532</v>
       </c>
       <c r="G3">
-        <v>3889166.10877645</v>
+        <v>3.619157358578502</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>52503742.46848208</v>
+        <v>48.858624340809769</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -590,48 +667,57 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>-63742888.5835301</v>
+        <v>-59.317482931247277</v>
       </c>
       <c r="P3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q3">
-        <v>-140234354.8837662</v>
+        <v>-65.249231224372025</v>
       </c>
       <c r="R3">
-        <v>-80401030.1333593</v>
+        <v>-74.819118470613262</v>
       </c>
       <c r="S3">
-        <v>-160802060.2667186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>-59.317482931247277</v>
+      </c>
+      <c r="U3">
+        <v>-130.49846244874399</v>
+      </c>
+      <c r="V3">
+        <v>-149.63823694122649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>31477969.67087906</v>
+        <v>29.292584163578919</v>
       </c>
       <c r="C4">
-        <v>56660345.40758231</v>
+        <v>52.726651494442038</v>
       </c>
       <c r="D4">
-        <v>8853178.969934735</v>
+        <v>8.2385392960065698</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26205409.75100682</v>
+        <v>24.386076316179452</v>
       </c>
       <c r="G4">
-        <v>6296732.177559111</v>
+        <v>5.859576052559138</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>85005884.39704801</v>
+        <v>79.104276709548358</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -649,22 +735,31 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>-39308114.62651023</v>
+        <v>-36.579114474269169</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>-78616229.25302045</v>
+        <v>-36.579114474269169</v>
       </c>
       <c r="R4">
-        <v>-119709144.7598695</v>
+        <v>-111.39823294488239</v>
       </c>
       <c r="S4">
-        <v>-239418289.5197391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>-36.579114474269169</v>
+      </c>
+      <c r="U4">
+        <v>-73.158228948538337</v>
+      </c>
+      <c r="V4">
+        <v>-222.79646588976479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2017</v>
       </c>
@@ -678,25 +773,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11400856.584968</v>
+        <v>10.657013067645339</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6800470.751763841</v>
+        <v>6.3283421367638679</v>
       </c>
       <c r="H5">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I5">
-        <v>79137971.66071953</v>
+        <v>73.64374893418001</v>
       </c>
       <c r="J5">
-        <v>153305752.404916</v>
+        <v>152.0929157318491</v>
       </c>
       <c r="K5">
-        <v>165505095.8827729</v>
+        <v>162.87719011482329</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -705,25 +800,34 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-11869896.59520345</v>
+        <v>-11.661608596803401</v>
       </c>
       <c r="O5">
-        <v>-469040.0102354418</v>
+        <v>-1.0045955291580571</v>
       </c>
       <c r="P5">
-        <v>1.818181818181818</v>
+        <v>1.8181818181818179</v>
       </c>
       <c r="Q5">
-        <v>-852800.0186098942</v>
+        <v>-0.9132686628709612</v>
       </c>
       <c r="R5">
-        <v>-120135544.7691745</v>
+        <v>-112.3115016077534</v>
       </c>
       <c r="S5">
-        <v>-240271089.538349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>-11.661608596803401</v>
+      </c>
+      <c r="T5">
+        <v>-1.0045955291580559</v>
+      </c>
+      <c r="U5">
+        <v>-1.82653732574192</v>
+      </c>
+      <c r="V5">
+        <v>-224.62300321550671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
@@ -737,52 +841,61 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19738283.02277285</v>
+        <v>18.44604974189863</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6331037.732857563</v>
+        <v>5.8914999147344007</v>
       </c>
       <c r="H6">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I6">
-        <v>72800625.90548477</v>
+        <v>67.746378936782207</v>
       </c>
       <c r="J6">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K6">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L6">
-        <v>228633.8357213038</v>
+        <v>0.67383552311142603</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-6293010.486372711</v>
+        <v>-6.5177128410531422</v>
       </c>
       <c r="O6">
-        <v>13445272.53640014</v>
+        <v>11.92833690084548</v>
       </c>
       <c r="P6">
-        <v>1.652892561983471</v>
+        <v>1.6528925619834709</v>
       </c>
       <c r="Q6">
-        <v>22223590.96925643</v>
+        <v>9.8581296701202348</v>
       </c>
       <c r="R6">
-        <v>-109212702.867787</v>
+        <v>-102.45337193763319</v>
       </c>
       <c r="S6">
-        <v>-218047498.5690925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>-5.8438773179417156</v>
+      </c>
+      <c r="T6">
+        <v>12.60217242395691</v>
+      </c>
+      <c r="U6">
+        <v>20.83003706439159</v>
+      </c>
+      <c r="V6">
+        <v>-203.79296615111519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2019</v>
       </c>
@@ -796,52 +909,61 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14479858.99615381</v>
+        <v>13.52348778973592</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5824050.072438781</v>
+        <v>5.4197103149425763</v>
       </c>
       <c r="H7">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I7">
-        <v>65956292.48983122</v>
+        <v>61.377219339592557</v>
       </c>
       <c r="J7">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K7">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L7">
-        <v>2021278.848500865</v>
+        <v>2.3531055880441629</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-1034586.459753664</v>
+        <v>-3.274420953823173</v>
       </c>
       <c r="O7">
-        <v>13445272.53640014</v>
+        <v>10.24906683591275</v>
       </c>
       <c r="P7">
-        <v>1.502629601803155</v>
+        <v>1.5026296018031551</v>
       </c>
       <c r="Q7">
-        <v>20203264.51750584</v>
+        <v>7.7002756092507454</v>
       </c>
       <c r="R7">
-        <v>-100629687.3246621</v>
+        <v>-94.753096328382398</v>
       </c>
       <c r="S7">
-        <v>-197844234.0515867</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>-0.92131536577901063</v>
+      </c>
+      <c r="T7">
+        <v>12.60217242395691</v>
+      </c>
+      <c r="U7">
+        <v>18.93639733126507</v>
+      </c>
+      <c r="V7">
+        <v>-184.85656881985011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -855,52 +977,61 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10695402.43126753</v>
+        <v>9.9814175735280326</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5276503.399186498</v>
+        <v>4.9101775471674056</v>
       </c>
       <c r="H8">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I8">
-        <v>58564412.40092538</v>
+        <v>54.498526974627758</v>
       </c>
       <c r="J8">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K8">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L8">
-        <v>3301739.571914837</v>
+        <v>3.5525842058532611</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1787415.568336195</v>
+        <v>-0.93182935542438461</v>
       </c>
       <c r="O8">
-        <v>12482817.99960373</v>
+        <v>9.0495882181036471</v>
       </c>
       <c r="P8">
         <v>1.366026910730141</v>
       </c>
       <c r="Q8">
-        <v>17051865.30920528</v>
+        <v>6.1809905184780041</v>
       </c>
       <c r="R8">
-        <v>-93701517.8249795</v>
+        <v>-88.5721058099044</v>
       </c>
       <c r="S8">
-        <v>-180792368.7423814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>1.7034906527787701</v>
+      </c>
+      <c r="T8">
+        <v>11.684908226306799</v>
+      </c>
+      <c r="U8">
+        <v>15.96189908654709</v>
+      </c>
+      <c r="V8">
+        <v>-168.894669733303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
@@ -914,52 +1045,61 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7973653.928359983</v>
+        <v>7.434626074163587</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4685152.992074031</v>
+        <v>4.3598821579702207</v>
       </c>
       <c r="H9">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I9">
-        <v>50581181.90490709</v>
+        <v>47.069539220465771</v>
       </c>
       <c r="J9">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K9">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L9">
-        <v>4213427.606985585</v>
+        <v>4.4066129817333382</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3556552.095226103</v>
+        <v>0.76093336805998302</v>
       </c>
       <c r="O9">
-        <v>11530206.02358609</v>
+        <v>8.1955594422235727</v>
       </c>
       <c r="P9">
-        <v>1.24184264611831</v>
+        <v>1.2418426461183101</v>
       </c>
       <c r="Q9">
-        <v>14318701.55861942</v>
+        <v>5.0887976120754104</v>
       </c>
       <c r="R9">
-        <v>-87969268.45713046</v>
+        <v>-83.48330819782899</v>
       </c>
       <c r="S9">
-        <v>-166473667.183762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>3.3589051273656589</v>
+      </c>
+      <c r="T9">
+        <v>10.79353120152925</v>
+      </c>
+      <c r="U9">
+        <v>13.403867348267619</v>
+      </c>
+      <c r="V9">
+        <v>-155.49080238503541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2022</v>
       </c>
@@ -973,52 +1113,61 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7858483.273947427</v>
+        <v>7.3293417965438339</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4046494.552392568</v>
+        <v>3.7655631376372618</v>
       </c>
       <c r="H10">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I10">
-        <v>41959292.96920733</v>
+        <v>39.046232445970823</v>
       </c>
       <c r="J10">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K10">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L10">
-        <v>4215988.528432413</v>
+        <v>4.4090119389689564</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3631413.020594264</v>
+        <v>0.86381868844411791</v>
       </c>
       <c r="O10">
-        <v>11489896.29454169</v>
+        <v>8.1931604849879527</v>
       </c>
       <c r="P10">
         <v>1.128947860107554</v>
       </c>
       <c r="Q10">
-        <v>12971493.83458056</v>
+        <v>4.6248254985224602</v>
       </c>
       <c r="R10">
-        <v>-82759578.24157044</v>
+        <v>-78.858482699306535</v>
       </c>
       <c r="S10">
-        <v>-153502173.3491814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>3.427339907818499</v>
+      </c>
+      <c r="T10">
+        <v>10.756681704362331</v>
+      </c>
+      <c r="U10">
+        <v>12.143732791997939</v>
+      </c>
+      <c r="V10">
+        <v>-143.34706959303739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2023</v>
       </c>
@@ -1032,52 +1181,61 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7765758.292392077</v>
+        <v>7.2448951299491782</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3356743.437536587</v>
+        <v>3.1236985956776659</v>
       </c>
       <c r="H11">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I11">
-        <v>32647652.91865159</v>
+        <v>30.381061129516279</v>
       </c>
       <c r="J11">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K11">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L11">
-        <v>4213427.606985585</v>
+        <v>4.4066129817333382</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3691684.258605242</v>
+        <v>0.95066431227439274</v>
       </c>
       <c r="O11">
-        <v>11457442.55099732</v>
+        <v>8.1955594422235727</v>
       </c>
       <c r="P11">
-        <v>1.026316236461413</v>
+        <v>1.0263162364614129</v>
       </c>
       <c r="Q11">
-        <v>11758959.31841242</v>
+        <v>4.2056178612193467</v>
       </c>
       <c r="R11">
-        <v>-78022182.06979437</v>
+        <v>-74.652864838087197</v>
       </c>
       <c r="S11">
-        <v>-141743214.030769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>3.4822302411050252</v>
+      </c>
+      <c r="T11">
+        <v>10.7271253710542</v>
+      </c>
+      <c r="U11">
+        <v>11.00942293887009</v>
+      </c>
+      <c r="V11">
+        <v>-132.3376466541674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2024</v>
       </c>
@@ -1091,52 +1249,61 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4402865.694915146</v>
+        <v>4.0969124857276524</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2611812.233492128</v>
+        <v>2.4304848903613019</v>
       </c>
       <c r="H12">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I12">
-        <v>22591081.66405139</v>
+        <v>21.022676107745369</v>
       </c>
       <c r="J12">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K12">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L12">
-        <v>5358159.493717675</v>
+        <v>5.4789468660546703</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5877564.446965246</v>
+        <v>3.0263130721745859</v>
       </c>
       <c r="O12">
-        <v>10280430.14188039</v>
+        <v>7.123225557902237</v>
       </c>
       <c r="P12">
-        <v>0.9330147604194662</v>
+        <v>0.93301476041946618</v>
       </c>
       <c r="Q12">
-        <v>9591793.065835591</v>
+        <v>3.3230372936599868</v>
       </c>
       <c r="R12">
-        <v>-74249484.15079261</v>
+        <v>-71.329827544427204</v>
       </c>
       <c r="S12">
-        <v>-132151420.9649334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>5.5284189598490174</v>
+      </c>
+      <c r="T12">
+        <v>9.6253314455766681</v>
+      </c>
+      <c r="U12">
+        <v>8.9805763126526692</v>
+      </c>
+      <c r="V12">
+        <v>-123.3570703415147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2025</v>
       </c>
@@ -1150,52 +1317,61 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11244003.97198546</v>
+        <v>10.26156937072353</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1807286.533124112</v>
+        <v>1.68181408861963</v>
       </c>
       <c r="H13">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I13">
-        <v>11729984.70908318</v>
+        <v>10.915620284232791</v>
       </c>
       <c r="J13">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K13">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L13">
-        <v>6500330.459002939</v>
+        <v>6.548881793140386</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1430824.566869542</v>
+        <v>-4.2082787399070094</v>
       </c>
       <c r="O13">
-        <v>12674828.538855</v>
+        <v>6.0532906308165222</v>
       </c>
       <c r="P13">
-        <v>0.8481952367449691</v>
+        <v>0.84819523674496911</v>
       </c>
       <c r="Q13">
-        <v>10750729.19321601</v>
+        <v>2.567186139845762</v>
       </c>
       <c r="R13">
-        <v>-71304150.7560336</v>
+        <v>-68.762641404581444</v>
       </c>
       <c r="S13">
-        <v>-121400691.7717174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>1.5213919846016939</v>
+      </c>
+      <c r="T13">
+        <v>11.782961355325231</v>
+      </c>
+      <c r="U13">
+        <v>9.9942516963369012</v>
+      </c>
+      <c r="V13">
+        <v>-113.3628186451778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2026</v>
       </c>
@@ -1209,52 +1385,61 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1124148.402488282</v>
+        <v>1.025926960170275</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>938398.7767266541</v>
+        <v>0.87324962273862328</v>
       </c>
       <c r="H14">
-        <v>12668383.48809233</v>
+        <v>11.78886991213221</v>
       </c>
       <c r="I14">
-        <v>-0.002282496163388714</v>
+        <v>-5.1607953209895641E-9</v>
       </c>
       <c r="J14">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K14">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L14">
-        <v>6500330.459002939</v>
+        <v>6.548881793140386</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8008730.68704271</v>
+        <v>5.0273636706462481</v>
       </c>
       <c r="O14">
-        <v>9132879.089530993</v>
+        <v>6.0532906308165222</v>
       </c>
       <c r="P14">
-        <v>0.7710865788590628</v>
+        <v>0.77108657885906284</v>
       </c>
       <c r="Q14">
-        <v>7042240.492279926</v>
+        <v>2.3338055816779661</v>
       </c>
       <c r="R14">
-        <v>-68626574.94261631</v>
+        <v>-66.42883582290348</v>
       </c>
       <c r="S14">
-        <v>-114358451.2794375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>7.5245595514613122</v>
+      </c>
+      <c r="T14">
+        <v>8.550486511631588</v>
+      </c>
+      <c r="U14">
+        <v>6.5931653918345638</v>
+      </c>
+      <c r="V14">
+        <v>-106.76965325334319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2027</v>
       </c>
@@ -1268,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1124400.397198546</v>
+        <v>1.0261569370723529</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1283,37 +1468,46 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K15">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L15">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16243016.15774105</v>
+        <v>13.72651232791738</v>
       </c>
       <c r="O15">
-        <v>17367416.55493959</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P15">
         <v>0.7009877989627844</v>
       </c>
       <c r="Q15">
-        <v>12174347.10451693</v>
+        <v>5.1707205784455379</v>
       </c>
       <c r="R15">
-        <v>-62908179.67519148</v>
+        <v>-61.258115244457947</v>
       </c>
       <c r="S15">
-        <v>-102184104.1749205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>15.1871755093609</v>
+      </c>
+      <c r="T15">
+        <v>16.213332446433249</v>
+      </c>
+      <c r="U15">
+        <v>11.36534822547714</v>
+      </c>
+      <c r="V15">
+        <v>-95.404305027866087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2028</v>
       </c>
@@ -1327,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1124148.402488282</v>
+        <v>1.025926960170275</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1342,37 +1536,46 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K16">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L16">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16243179.95430272</v>
+        <v>13.72674230481946</v>
       </c>
       <c r="O16">
-        <v>17367328.356791</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P16">
-        <v>0.637261635420713</v>
+        <v>0.63726163542071301</v>
       </c>
       <c r="Q16">
-        <v>11067532.07153716</v>
+        <v>4.7006550713141264</v>
       </c>
       <c r="R16">
-        <v>-57709638.52298709</v>
+        <v>-56.557460173143816</v>
       </c>
       <c r="S16">
-        <v>-91116572.10338336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>15.18732499434725</v>
+      </c>
+      <c r="T16">
+        <v>16.213251954517521</v>
+      </c>
+      <c r="U16">
+        <v>10.332083456023909</v>
+      </c>
+      <c r="V16">
+        <v>-85.072221571842178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2029</v>
       </c>
@@ -1386,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1124400.397198546</v>
+        <v>1.0261569370723529</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1401,37 +1604,46 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K17">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L17">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16243016.15774105</v>
+        <v>13.72651232791738</v>
       </c>
       <c r="O17">
-        <v>17367416.55493959</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P17">
-        <v>0.5793287594733754</v>
+        <v>0.57932875947337537</v>
       </c>
       <c r="Q17">
-        <v>10061443.88803052</v>
+        <v>4.2733227921037491</v>
       </c>
       <c r="R17">
-        <v>-52983692.0209831</v>
+        <v>-52.284137381040047</v>
       </c>
       <c r="S17">
-        <v>-81055128.21535285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>15.1871755093609</v>
+      </c>
+      <c r="T17">
+        <v>16.213332446433249</v>
+      </c>
+      <c r="U17">
+        <v>9.3928497731216023</v>
+      </c>
+      <c r="V17">
+        <v>-75.679371798720581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2030</v>
       </c>
@@ -1445,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1124148.402488282</v>
+        <v>1.025926960170275</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1460,37 +1672,46 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K18">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L18">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16243179.95430272</v>
+        <v>13.72674230481946</v>
       </c>
       <c r="O18">
-        <v>17367328.356791</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P18">
-        <v>0.5266625086121595</v>
+        <v>0.52666250861215935</v>
       </c>
       <c r="Q18">
-        <v>9146720.720278643</v>
+        <v>3.8848389019125</v>
       </c>
       <c r="R18">
-        <v>-48687377.01916129</v>
+        <v>-48.399298479127573</v>
       </c>
       <c r="S18">
-        <v>-71908407.49507421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>15.18732499434725</v>
+      </c>
+      <c r="T18">
+        <v>16.213251954517521</v>
+      </c>
+      <c r="U18">
+        <v>8.538911947127195</v>
+      </c>
+      <c r="V18">
+        <v>-67.140459851593391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2031</v>
       </c>
@@ -1504,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1124400.397198546</v>
+        <v>1.0261569370723529</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1519,37 +1740,46 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K19">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L19">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16243016.15774105</v>
+        <v>13.72651232791738</v>
       </c>
       <c r="O19">
-        <v>17367416.55493959</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P19">
-        <v>0.4787840987383267</v>
+        <v>0.47878409873832672</v>
       </c>
       <c r="Q19">
-        <v>8315242.882669847</v>
+        <v>3.5316717290113631</v>
       </c>
       <c r="R19">
-        <v>-44781636.10841419</v>
+        <v>-44.867626750116202</v>
       </c>
       <c r="S19">
-        <v>-63593164.61240436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>15.1871755093609</v>
+      </c>
+      <c r="T19">
+        <v>16.213332446433249</v>
+      </c>
+      <c r="U19">
+        <v>7.7626857629104142</v>
+      </c>
+      <c r="V19">
+        <v>-59.377774088682983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2032</v>
       </c>
@@ -1563,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1124148.402488282</v>
+        <v>1.025926960170275</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1578,37 +1808,46 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K20">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L20">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16243179.95430272</v>
+        <v>13.72674230481946</v>
       </c>
       <c r="O20">
-        <v>17367328.356791</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P20">
-        <v>0.435258271580297</v>
+        <v>0.43525827158029701</v>
       </c>
       <c r="Q20">
-        <v>7559273.322544333</v>
+        <v>3.2106106627376021</v>
       </c>
       <c r="R20">
-        <v>-41230962.55318956</v>
+        <v>-41.657016087378608</v>
       </c>
       <c r="S20">
-        <v>-56033891.28986003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>15.18732499434725</v>
+      </c>
+      <c r="T20">
+        <v>16.213251954517521</v>
+      </c>
+      <c r="U20">
+        <v>7.0569520224191704</v>
+      </c>
+      <c r="V20">
+        <v>-52.320822066263808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2033</v>
       </c>
@@ -1622,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1124400.397198546</v>
+        <v>1.0261569370723529</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1637,37 +1876,46 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K21">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L21">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16243016.15774105</v>
+        <v>13.72651232791738</v>
       </c>
       <c r="O21">
-        <v>17367416.55493959</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P21">
-        <v>0.3956893378002699</v>
+        <v>0.39568933780026988</v>
       </c>
       <c r="Q21">
-        <v>6872101.555925493</v>
+        <v>2.9187369661250919</v>
       </c>
       <c r="R21">
-        <v>-38003077.50298534</v>
+        <v>-38.738279121253512</v>
       </c>
       <c r="S21">
-        <v>-49161789.73393453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>15.1871755093609</v>
+      </c>
+      <c r="T21">
+        <v>16.213332446433249</v>
+      </c>
+      <c r="U21">
+        <v>6.4154427792648043</v>
+      </c>
+      <c r="V21">
+        <v>-45.905379286999008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2034</v>
       </c>
@@ -1681,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1124148.402488282</v>
+        <v>1.025926960170275</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1696,37 +1944,46 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K22">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L22">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16243179.95430272</v>
+        <v>13.72674230481946</v>
       </c>
       <c r="O22">
-        <v>17367328.356791</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P22">
-        <v>0.3597175798184272</v>
+        <v>0.35971757981842722</v>
       </c>
       <c r="Q22">
-        <v>6247333.324416801</v>
+        <v>2.6533972419319021</v>
       </c>
       <c r="R22">
-        <v>-35068636.54825424</v>
+        <v>-36.084881879321621</v>
       </c>
       <c r="S22">
-        <v>-42914456.40951773</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>15.18732499434725</v>
+      </c>
+      <c r="T22">
+        <v>16.213251954517521</v>
+      </c>
+      <c r="U22">
+        <v>5.8321917540654278</v>
+      </c>
+      <c r="V22">
+        <v>-40.073187532933581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2035</v>
       </c>
@@ -1740,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1124400.397198546</v>
+        <v>1.0261569370723529</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1755,37 +2012,46 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K23">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L23">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16243016.15774105</v>
+        <v>13.72651232791738</v>
       </c>
       <c r="O23">
-        <v>17367416.55493959</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P23">
-        <v>0.3270159816531156</v>
+        <v>0.32701598165311557</v>
       </c>
       <c r="Q23">
-        <v>5679422.773492143</v>
+        <v>2.4121793108471841</v>
       </c>
       <c r="R23">
-        <v>-32400962.95304415</v>
+        <v>-33.672702568474428</v>
       </c>
       <c r="S23">
-        <v>-37235033.63602559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>15.1871755093609</v>
+      </c>
+      <c r="T23">
+        <v>16.213332446433249</v>
+      </c>
+      <c r="U23">
+        <v>5.3020188258386796</v>
+      </c>
+      <c r="V23">
+        <v>-34.771168707094901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2036</v>
       </c>
@@ -1799,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1124148.402488282</v>
+        <v>1.025926960170275</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1814,37 +2080,46 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K24">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L24">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16243179.95430272</v>
+        <v>13.72674230481946</v>
       </c>
       <c r="O24">
-        <v>17367328.356791</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P24">
-        <v>0.2972872560482869</v>
+        <v>0.29728725604828687</v>
       </c>
       <c r="Q24">
-        <v>5163085.392080001</v>
+        <v>2.1928902825883481</v>
       </c>
       <c r="R24">
-        <v>-29975805.13921679</v>
+        <v>-31.479812285886091</v>
       </c>
       <c r="S24">
-        <v>-32071948.24394558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>15.18732499434725</v>
+      </c>
+      <c r="T24">
+        <v>16.213251954517521</v>
+      </c>
+      <c r="U24">
+        <v>4.8199931851780384</v>
+      </c>
+      <c r="V24">
+        <v>-29.951175521916859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2037</v>
       </c>
@@ -1858,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>562200.1985992731</v>
+        <v>0.51307846853617656</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1873,37 +2148,46 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K25">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L25">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16608446.28683058</v>
+        <v>14.239590796453561</v>
       </c>
       <c r="O25">
-        <v>17170646.48542985</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P25">
-        <v>0.2702611418620789</v>
+        <v>0.27026114186207889</v>
       </c>
       <c r="Q25">
-        <v>4640558.525662364</v>
+        <v>1.9935366205348619</v>
       </c>
       <c r="R25">
-        <v>-27771116.21755556</v>
+        <v>-29.48627566535124</v>
       </c>
       <c r="S25">
-        <v>-27431389.71828322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>15.520676513909409</v>
+      </c>
+      <c r="T25">
+        <v>16.03375498244559</v>
+      </c>
+      <c r="U25">
+        <v>4.333300929892542</v>
+      </c>
+      <c r="V25">
+        <v>-25.617874592024322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2038</v>
       </c>
@@ -1932,37 +2216,46 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K26">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L26">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="O26">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P26">
-        <v>0.2456919471473445</v>
+        <v>0.24569194714734449</v>
       </c>
       <c r="Q26">
-        <v>4170344.747265799</v>
+        <v>1.812306018668056</v>
       </c>
       <c r="R26">
-        <v>-25766853.56149989</v>
+        <v>-27.673969646683179</v>
       </c>
       <c r="S26">
-        <v>-23261044.97101742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="T26">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="U26">
+        <v>3.8952437449295831</v>
+      </c>
+      <c r="V26">
+        <v>-21.722630847094742</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2039</v>
       </c>
@@ -1991,37 +2284,46 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K27">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L27">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="O27">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P27">
         <v>0.223356315588495</v>
       </c>
       <c r="Q27">
-        <v>3791222.497514363</v>
+        <v>1.647550926061869</v>
       </c>
       <c r="R27">
-        <v>-23944796.60144929</v>
+        <v>-26.02641872062129</v>
       </c>
       <c r="S27">
-        <v>-19469822.47350306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="T27">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="U27">
+        <v>3.5411306772087112</v>
+      </c>
+      <c r="V27">
+        <v>-18.181500169886029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2040</v>
       </c>
@@ -2050,37 +2352,46 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K28">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L28">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="O28">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P28">
-        <v>0.2030511959895409</v>
+        <v>0.20305119598954091</v>
       </c>
       <c r="Q28">
-        <v>3446565.906831239</v>
+        <v>1.4977735691471541</v>
       </c>
       <c r="R28">
-        <v>-22288381.18322146</v>
+        <v>-24.528645151474141</v>
       </c>
       <c r="S28">
-        <v>-16023256.56667182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="T28">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="U28">
+        <v>3.2192097065533738</v>
+      </c>
+      <c r="V28">
+        <v>-14.962290463332661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2041</v>
       </c>
@@ -2109,37 +2420,46 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K29">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L29">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="O29">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P29">
-        <v>0.184591996354128</v>
+        <v>0.18459199635412801</v>
       </c>
       <c r="Q29">
-        <v>3133241.733482944</v>
+        <v>1.361612335588321</v>
       </c>
       <c r="R29">
-        <v>-20782548.98483252</v>
+        <v>-23.167032815885818</v>
       </c>
       <c r="S29">
-        <v>-12890014.83318887</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="T29">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="U29">
+        <v>2.9265542786848848</v>
+      </c>
+      <c r="V29">
+        <v>-12.035736184647771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2042</v>
       </c>
@@ -2168,37 +2488,46 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K30">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L30">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="O30">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P30">
         <v>0.16781090577648</v>
       </c>
       <c r="Q30">
-        <v>2848401.575893585</v>
+        <v>1.2378293959893829</v>
       </c>
       <c r="R30">
-        <v>-19413610.62266076</v>
+        <v>-21.929203419896432</v>
       </c>
       <c r="S30">
-        <v>-10041613.25729529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="T30">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="U30">
+        <v>2.660503889713532</v>
+      </c>
+      <c r="V30">
+        <v>-9.3752322949342393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2043</v>
       </c>
@@ -2227,37 +2556,46 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K31">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L31">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="O31">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P31">
         <v>0.1525553688877091</v>
       </c>
       <c r="Q31">
-        <v>2589455.978085077</v>
+        <v>1.1252994508994389</v>
       </c>
       <c r="R31">
-        <v>-18169121.20250462</v>
+        <v>-20.80390396899698</v>
       </c>
       <c r="S31">
-        <v>-7452157.279210213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="T31">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="U31">
+        <v>2.4186398997395742</v>
+      </c>
+      <c r="V31">
+        <v>-6.9565923951946651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2044</v>
       </c>
@@ -2286,37 +2624,46 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K32">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L32">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="O32">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P32">
-        <v>0.1386866989888264</v>
+        <v>0.13868669898882641</v>
       </c>
       <c r="Q32">
-        <v>2354050.889168252</v>
+        <v>1.022999500817672</v>
       </c>
       <c r="R32">
-        <v>-17037767.18418085</v>
+        <v>-19.780904468179319</v>
       </c>
       <c r="S32">
-        <v>-5098106.39004196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="T32">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="U32">
+        <v>2.198763545217794</v>
+      </c>
+      <c r="V32">
+        <v>-4.7578288499768711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2045</v>
       </c>
@@ -2345,37 +2692,46 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K33">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L33">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="O33">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="P33">
         <v>0.1260788172625695</v>
       </c>
       <c r="Q33">
-        <v>2140046.262880229</v>
+        <v>0.92999954619788339</v>
       </c>
       <c r="R33">
-        <v>-16009263.53115924</v>
+        <v>-18.850904921981421</v>
       </c>
       <c r="S33">
-        <v>-2958060.127161731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="T33">
+        <v>15.854177518457931</v>
+      </c>
+      <c r="U33">
+        <v>1.9988759501979949</v>
+      </c>
+      <c r="V33">
+        <v>-2.7589528997788761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2046</v>
       </c>
@@ -2386,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-8853178.969934735</v>
+        <v>-8.2385392960065698</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2404,34 +2760,43 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>163035024.9843909</v>
+        <v>161.7543177951375</v>
       </c>
       <c r="K34">
-        <v>189148681.0088834</v>
+        <v>186.1453601312266</v>
       </c>
       <c r="L34">
-        <v>9798406.954862304</v>
+        <v>9.6383730710993802</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>16973876.4159201</v>
+        <v>14.75266926498974</v>
       </c>
       <c r="O34">
-        <v>25827055.38585484</v>
+        <v>22.991208560996309</v>
       </c>
       <c r="P34">
         <v>0.1146171066023359</v>
       </c>
       <c r="Q34">
-        <v>2960222.360384958</v>
+        <v>1.317592901276126</v>
       </c>
       <c r="R34">
-        <v>-14566897.33134723</v>
+        <v>-17.533312020705299</v>
       </c>
       <c r="S34">
-        <v>2162.233223226387</v>
+        <v>15.854177518457931</v>
+      </c>
+      <c r="T34">
+        <v>24.092716814464499</v>
+      </c>
+      <c r="U34">
+        <v>2.7614374914633681</v>
+      </c>
+      <c r="V34">
+        <v>2.4845916844919991E-3</v>
       </c>
     </row>
   </sheetData>
